--- a/Bericht-1/Blatt 2 Aufgabe 6.xlsx
+++ b/Bericht-1/Blatt 2 Aufgabe 6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Github\WR\WR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karch\Desktop\WissRechnen\Bericht-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8B0DC7-B37D-4272-9699-CF4FA5ABE1A2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB504812-440D-42DC-B89E-34C270396E64}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2076" yWindow="0" windowWidth="18900" windowHeight="11436" xr2:uid="{F4634DEE-B57E-4B9E-90E1-B37DD8479036}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12497" xr2:uid="{F4634DEE-B57E-4B9E-90E1-B37DD8479036}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -141,7 +140,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -267,8 +266,62 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -276,84 +329,14 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -362,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -384,11 +367,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -705,16 +686,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754BD2B8-3F51-4FA0-BCE5-6D4A3299F5FB}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="16.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.4">
       <c r="D1" s="15"/>
       <c r="E1" s="16" t="s">
         <v>4</v>
@@ -728,7 +709,7 @@
       <c r="J1" s="16"/>
       <c r="K1" s="17"/>
     </row>
-    <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -746,7 +727,7 @@
       </c>
       <c r="K2" s="9"/>
     </row>
-    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -775,7 +756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="15" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>0</v>
       </c>
@@ -796,7 +777,7 @@
         <v>-6.0672599999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>1</v>
       </c>
@@ -817,7 +798,7 @@
         <v>-1.2881699999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>2</v>
       </c>
@@ -838,7 +819,7 @@
         <v>-1.28437E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>3</v>
       </c>
@@ -867,7 +848,7 @@
         <v>-1.0008599999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>4</v>
       </c>
@@ -896,7 +877,7 @@
         <v>-7.1303199999999999E-3</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>5</v>
       </c>
@@ -917,7 +898,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>6</v>
       </c>
@@ -938,7 +919,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>7</v>
       </c>
@@ -959,7 +940,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="9"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>7</v>
       </c>
@@ -983,7 +964,7 @@
         <v>1.2006132573270956</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
         <v>8</v>
       </c>
@@ -1007,7 +988,7 @@
         <v>1.2242180339225823</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
         <v>9</v>
       </c>
@@ -1031,7 +1012,7 @@
         <v>1.181099344209507</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>10</v>
       </c>
@@ -1055,7 +1036,7 @@
         <v>1.1495012665151085</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C18" t="s">
         <v>14</v>
       </c>
@@ -1076,7 +1057,7 @@
         <v>1.1888579754935733</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>17</v>
       </c>
@@ -1097,7 +1078,7 @@
         <v>0.26377150359090656</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D21">
         <f t="shared" ref="D21:D25" si="4">LOG(D14,2)</f>
         <v>1.022690567876765</v>
@@ -1115,7 +1096,7 @@
         <v>0.2918605257150832</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D22">
         <f t="shared" si="4"/>
         <v>1.0176031120694875</v>
@@ -1133,7 +1114,7 @@
         <v>0.24013031729277076</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D23">
         <f t="shared" si="4"/>
         <v>1.005351904395102</v>
@@ -1151,7 +1132,7 @@
         <v>0.20100805561160379</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -1172,7 +1153,7 @@
         <v>0.24957637674085709</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
         <v>16</v>
       </c>
@@ -1193,29 +1174,30 @@
         <v>0.24919260055259107</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="23"/>
-      <c r="B32" s="21" t="s">
+    <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="21"/>
+      <c r="B32" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="E32" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="22" t="s">
+      <c r="F32" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="24" t="s">
+    <row r="33" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>1</v>
       </c>
       <c r="C33" s="3">
@@ -1227,35 +1209,39 @@
       <c r="E33" s="3">
         <v>64</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="4">
         <v>256</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="24" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>4</v>
       </c>
       <c r="C34" s="3">
+        <f>C35</f>
+        <v>9</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" ref="D34:F34" si="9">D35</f>
         <v>25</v>
       </c>
-      <c r="D34" s="3">
-        <v>49</v>
-      </c>
       <c r="E34" s="3">
-        <v>121</v>
-      </c>
-      <c r="F34" s="18">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="24" t="s">
+        <f t="shared" si="9"/>
+        <v>81</v>
+      </c>
+      <c r="F34" s="4">
+        <f t="shared" si="9"/>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>4</v>
       </c>
       <c r="C35" s="3">
@@ -1267,15 +1253,15 @@
       <c r="E35" s="3">
         <v>81</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="4">
         <v>289</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="24" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>4</v>
       </c>
       <c r="C36" s="3">
@@ -1287,15 +1273,15 @@
       <c r="E36" s="3">
         <v>144</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="4">
         <v>544</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="24" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>1</v>
       </c>
       <c r="C37" s="3">
@@ -1307,27 +1293,27 @@
       <c r="E37" s="3">
         <v>0.125</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="4">
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="25" t="s">
+    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="19">
+      <c r="B38" s="6">
         <v>1</v>
       </c>
-      <c r="C38" s="19">
+      <c r="C38" s="7">
         <v>0.5</v>
       </c>
-      <c r="D38" s="19">
+      <c r="D38" s="7">
         <v>0.25</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E38" s="7">
         <v>0.125</v>
       </c>
-      <c r="F38" s="20">
+      <c r="F38" s="9">
         <v>6.25E-2</v>
       </c>
     </row>
